--- a/writable/template/template_export_retur_purchase_detail.xlsx
+++ b/writable/template/template_export_retur_purchase_detail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/Dbig/writable/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95145AD7-62E0-1A4B-9FA8-A87D93FBF733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9556DF3F-2139-0841-A39C-DFB95AFE2071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15480" xr2:uid="{121B3595-B946-4EB3-A444-621BA2FB6EAD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{121B3595-B946-4EB3-A444-621BA2FB6EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Retur Pembelian" sheetId="2" r:id="rId1"/>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3BAD26-DF60-4598-8F68-331591CF5B28}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
